--- a/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44824</v>
       </c>
       <c r="B2" t="n">
-        <v>15.40912732300046</v>
+        <v>15.40912732290266</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.984614010896919</v>
+        <v>-5.05237996714038</v>
       </c>
       <c r="D2" t="n">
-        <v>38.61646214482233</v>
+        <v>38.37175656400442</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -496,13 +496,13 @@
         <v>44838</v>
       </c>
       <c r="B3" t="n">
-        <v>13.94513935220879</v>
+        <v>13.9451393522769</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.12830387668906</v>
+        <v>-7.264482685272032</v>
       </c>
       <c r="D3" t="n">
-        <v>33.60858196546339</v>
+        <v>35.76614531743055</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -516,13 +516,13 @@
         <v>44845</v>
       </c>
       <c r="B4" t="n">
-        <v>14.38352880598573</v>
+        <v>14.38352880598534</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.621298709463317</v>
+        <v>-10.33837123520713</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3256733745902</v>
+        <v>36.30457340972757</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -536,13 +536,13 @@
         <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>15.80337253366927</v>
+        <v>15.80337253366875</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.524718235752908</v>
+        <v>-5.716423357810245</v>
       </c>
       <c r="D5" t="n">
-        <v>37.31178850939395</v>
+        <v>35.80130893654093</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>20.43466007938929</v>
+        <v>20.43466007938928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1294153349683708</v>
+        <v>-2.044617482029114</v>
       </c>
       <c r="D6" t="n">
-        <v>42.10044222313908</v>
+        <v>42.66344744518567</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -576,13 +576,13 @@
         <v>44876</v>
       </c>
       <c r="B7" t="n">
-        <v>21.50835144289148</v>
+        <v>21.91088978230634</v>
       </c>
       <c r="C7" t="n">
-        <v>1.60630304488223</v>
+        <v>2.461126640296108</v>
       </c>
       <c r="D7" t="n">
-        <v>42.5168126975329</v>
+        <v>43.36636947928567</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -596,13 +596,13 @@
         <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>16.79600552535401</v>
+        <v>16.99345410578879</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.819752633871664</v>
+        <v>-5.198674090215682</v>
       </c>
       <c r="D8" t="n">
-        <v>37.53671584712358</v>
+        <v>37.93502970684552</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>15.64066201758626</v>
+        <v>15.81341894538173</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.792198456823377</v>
+        <v>-7.171533114862774</v>
       </c>
       <c r="D9" t="n">
-        <v>34.91859428703061</v>
+        <v>35.86089291729382</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -636,13 +636,13 @@
         <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>20.17933690311523</v>
+        <v>20.40738908400868</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.265189997771649</v>
+        <v>-0.4159610834592899</v>
       </c>
       <c r="D10" t="n">
-        <v>40.26488028742819</v>
+        <v>43.12113727797546</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -656,13 +656,13 @@
         <v>44908</v>
       </c>
       <c r="B11" t="n">
-        <v>14.45474565695968</v>
+        <v>14.55967237292885</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.448231768381151</v>
+        <v>-7.344114428992187</v>
       </c>
       <c r="D11" t="n">
-        <v>35.25152741575335</v>
+        <v>35.2635726448617</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44918</v>
       </c>
       <c r="B12" t="n">
-        <v>17.15317682865151</v>
+        <v>17.70104433049461</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.500549622143693</v>
+        <v>-3.213613677105362</v>
       </c>
       <c r="D12" t="n">
-        <v>37.16017299269259</v>
+        <v>38.50573715190647</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -696,13 +696,13 @@
         <v>44925</v>
       </c>
       <c r="B13" t="n">
-        <v>15.96751210071176</v>
+        <v>16.28948645522289</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.579786797640109</v>
+        <v>-3.6327864790139</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27079312909919</v>
+        <v>36.21054403139849</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -716,13 +716,13 @@
         <v>44932</v>
       </c>
       <c r="B14" t="n">
-        <v>16.02600204079613</v>
+        <v>16.48786488756254</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.766262008643721</v>
+        <v>-4.306360398314206</v>
       </c>
       <c r="D14" t="n">
-        <v>35.48621484406718</v>
+        <v>36.70360599958948</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>44943</v>
       </c>
       <c r="B15" t="n">
-        <v>11.55899516077238</v>
+        <v>11.74846300700207</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.240316160278493</v>
+        <v>-7.463095102427117</v>
       </c>
       <c r="D15" t="n">
-        <v>31.55835370028656</v>
+        <v>32.0837996713463</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -756,13 +756,13 @@
         <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>12.11677223978753</v>
+        <v>12.30299455682634</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.238810262982597</v>
+        <v>-6.009415899815497</v>
       </c>
       <c r="D16" t="n">
-        <v>30.71232476197659</v>
+        <v>32.73766088964893</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44957</v>
       </c>
       <c r="B17" t="n">
-        <v>11.656000670114</v>
+        <v>11.83904385253868</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.226778922289013</v>
+        <v>-8.863355383923242</v>
       </c>
       <c r="D17" t="n">
-        <v>31.22291691146016</v>
+        <v>30.51358373710671</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44960</v>
       </c>
       <c r="B18" t="n">
-        <v>14.22445990128316</v>
+        <v>14.67479627638243</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.777839621067648</v>
+        <v>-4.596011159971252</v>
       </c>
       <c r="D18" t="n">
-        <v>32.95336919841453</v>
+        <v>34.1639154438594</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -816,13 +816,13 @@
         <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>10.49073875445923</v>
+        <v>10.65537891880354</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.426101057350373</v>
+        <v>-7.752942895643506</v>
       </c>
       <c r="D19" t="n">
-        <v>29.06275973089187</v>
+        <v>30.10869263983777</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -897,22 +897,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>45.56820158747382</v>
+        <v>48.6401543820084</v>
       </c>
       <c r="C2" t="n">
-        <v>6.750422326601042</v>
+        <v>6.974249377675593</v>
       </c>
       <c r="D2" t="n">
-        <v>6.09845070523378</v>
+        <v>6.351119689448922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4791691712162782</v>
+        <v>0.5038606126027654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4224459901283163</v>
+        <v>0.4674796276382434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3842200283765744</v>
+        <v>0.397761161779957</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -923,25 +923,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>95.95068885661726</v>
+        <v>95.41390608884797</v>
       </c>
       <c r="C3" t="n">
-        <v>9.795442249159414</v>
+        <v>9.768004201926203</v>
       </c>
       <c r="D3" t="n">
-        <v>8.055474071866726</v>
+        <v>8.068635513442459</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4209185435020659</v>
+        <v>0.4248789830833557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4454745656959682</v>
+        <v>0.4559672372928851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4604754515992839</v>
+        <v>0.4614329085154427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9090909090909083</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44824</v>
       </c>
       <c r="B2" t="n">
-        <v>15.40912732290266</v>
+        <v>15.40912732275722</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.05237996714038</v>
+        <v>-7.04394452599009</v>
       </c>
       <c r="D2" t="n">
-        <v>38.37175656400442</v>
+        <v>36.80109547003617</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -496,13 +496,13 @@
         <v>44838</v>
       </c>
       <c r="B3" t="n">
-        <v>13.9451393522769</v>
+        <v>13.94513935230927</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.264482685272032</v>
+        <v>-8.027445174411463</v>
       </c>
       <c r="D3" t="n">
-        <v>35.76614531743055</v>
+        <v>36.33743698182003</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -516,13 +516,13 @@
         <v>44845</v>
       </c>
       <c r="B4" t="n">
-        <v>14.38352880598534</v>
+        <v>14.38352880598541</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.33837123520713</v>
+        <v>-6.942606096967181</v>
       </c>
       <c r="D4" t="n">
-        <v>36.30457340972757</v>
+        <v>37.31978832095123</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -536,13 +536,13 @@
         <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>15.80337253366875</v>
+        <v>15.80337253366874</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.716423357810245</v>
+        <v>-5.376828738975632</v>
       </c>
       <c r="D5" t="n">
-        <v>35.80130893654093</v>
+        <v>37.94838330417068</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>20.43466007938928</v>
+        <v>20.43466007938947</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.044617482029114</v>
+        <v>-2.256680476870987</v>
       </c>
       <c r="D6" t="n">
-        <v>42.66344744518567</v>
+        <v>41.85647818344228</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -576,13 +576,13 @@
         <v>44876</v>
       </c>
       <c r="B7" t="n">
-        <v>21.91088978230634</v>
+        <v>21.9108897823065</v>
       </c>
       <c r="C7" t="n">
-        <v>2.461126640296108</v>
+        <v>0.002630080058125293</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36636947928567</v>
+        <v>42.67372291218389</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -596,13 +596,13 @@
         <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>16.99345410578879</v>
+        <v>16.99345410578896</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.198674090215682</v>
+        <v>-4.846783288411197</v>
       </c>
       <c r="D8" t="n">
-        <v>37.93502970684552</v>
+        <v>39.1944465664708</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -616,13 +616,13 @@
         <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>15.81341894538173</v>
+        <v>15.81341894536384</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.171533114862774</v>
+        <v>-5.334282552183827</v>
       </c>
       <c r="D9" t="n">
-        <v>35.86089291729382</v>
+        <v>38.2319176699146</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -636,13 +636,13 @@
         <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>20.40738908400868</v>
+        <v>20.4073890882644</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4159610834592899</v>
+        <v>-1.413539775085131</v>
       </c>
       <c r="D10" t="n">
-        <v>43.12113727797546</v>
+        <v>41.12198037782096</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -656,13 +656,13 @@
         <v>44908</v>
       </c>
       <c r="B11" t="n">
-        <v>14.55967237292885</v>
+        <v>14.55967237289326</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.344114428992187</v>
+        <v>-6.348786230891833</v>
       </c>
       <c r="D11" t="n">
-        <v>35.2635726448617</v>
+        <v>34.64838381808907</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -676,13 +676,13 @@
         <v>44918</v>
       </c>
       <c r="B12" t="n">
-        <v>17.70104433049461</v>
+        <v>17.70104433963863</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.213613677105362</v>
+        <v>-3.799764804387665</v>
       </c>
       <c r="D12" t="n">
-        <v>38.50573715190647</v>
+        <v>38.07537120628744</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -696,13 +696,13 @@
         <v>44925</v>
       </c>
       <c r="B13" t="n">
-        <v>16.28948645522289</v>
+        <v>16.28948767281216</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.6327864790139</v>
+        <v>-4.688394371652044</v>
       </c>
       <c r="D13" t="n">
-        <v>36.21054403139849</v>
+        <v>37.36565145785644</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -716,13 +716,13 @@
         <v>44932</v>
       </c>
       <c r="B14" t="n">
-        <v>16.48786488756254</v>
+        <v>16.48786488756266</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.306360398314206</v>
+        <v>-4.221776203935814</v>
       </c>
       <c r="D14" t="n">
-        <v>36.70360599958948</v>
+        <v>36.08159040440029</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -736,13 +736,13 @@
         <v>44943</v>
       </c>
       <c r="B15" t="n">
-        <v>11.74846300700207</v>
+        <v>11.74846300701651</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.463095102427117</v>
+        <v>-8.242309784873862</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0837996713463</v>
+        <v>31.85096552895849</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -756,13 +756,13 @@
         <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>12.30299455682634</v>
+        <v>12.30299455681601</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.009415899815497</v>
+        <v>-7.692323493511664</v>
       </c>
       <c r="D16" t="n">
-        <v>32.73766088964893</v>
+        <v>32.02336132184255</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -776,13 +776,13 @@
         <v>44957</v>
       </c>
       <c r="B17" t="n">
-        <v>11.83904385253868</v>
+        <v>11.83904373026081</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.863355383923242</v>
+        <v>-7.837482848220591</v>
       </c>
       <c r="D17" t="n">
-        <v>30.51358373710671</v>
+        <v>31.78339117217105</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -796,13 +796,13 @@
         <v>44960</v>
       </c>
       <c r="B18" t="n">
-        <v>14.67479627638243</v>
+        <v>14.67479627638264</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.596011159971252</v>
+        <v>-4.70837400601392</v>
       </c>
       <c r="D18" t="n">
-        <v>34.1639154438594</v>
+        <v>35.24044060084297</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -816,13 +816,13 @@
         <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>10.65537891880354</v>
+        <v>10.65537891880386</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.752942895643506</v>
+        <v>-8.714984928207253</v>
       </c>
       <c r="D19" t="n">
-        <v>30.10869263983777</v>
+        <v>29.83181075291298</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -897,22 +897,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>48.6401543820084</v>
+        <v>48.64015312395946</v>
       </c>
       <c r="C2" t="n">
-        <v>6.974249377675593</v>
+        <v>6.974249287483167</v>
       </c>
       <c r="D2" t="n">
-        <v>6.351119689448922</v>
+        <v>6.351119517421893</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5038606126027654</v>
+        <v>0.5038606040971292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4674796276382434</v>
+        <v>0.4674796276382642</v>
       </c>
       <c r="G2" t="n">
-        <v>0.397761161779957</v>
+        <v>0.3977611513078561</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -923,25 +923,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>95.41390608884797</v>
+        <v>95.41390604774006</v>
       </c>
       <c r="C3" t="n">
-        <v>9.768004201926203</v>
+        <v>9.768004199821991</v>
       </c>
       <c r="D3" t="n">
-        <v>8.068635513442459</v>
+        <v>8.06863550230625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4248789830833557</v>
+        <v>0.4248789819698677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4559672372928851</v>
+        <v>0.4559672372893262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4614329085154427</v>
+        <v>0.461432907581842</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9090909090909083</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4451276/OBASPA4451276_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>15.40912732275722</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.04394452599009</v>
+        <v>-6.876304173839375</v>
       </c>
       <c r="D2" t="n">
-        <v>36.80109547003617</v>
+        <v>35.84068822177481</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -499,10 +499,10 @@
         <v>13.94513935230927</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.027445174411463</v>
+        <v>-6.695695437016093</v>
       </c>
       <c r="D3" t="n">
-        <v>36.33743698182003</v>
+        <v>38.01411863204746</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -519,10 +519,10 @@
         <v>14.38352880598541</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.942606096967181</v>
+        <v>-9.045533589942107</v>
       </c>
       <c r="D4" t="n">
-        <v>37.31978832095123</v>
+        <v>34.48069792314004</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -539,10 +539,10 @@
         <v>15.80337253366874</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.376828738975632</v>
+        <v>-6.450414407417969</v>
       </c>
       <c r="D5" t="n">
-        <v>37.94838330417068</v>
+        <v>36.11333723272276</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -559,10 +559,10 @@
         <v>20.43466007938947</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.256680476870987</v>
+        <v>-1.429003411333692</v>
       </c>
       <c r="D6" t="n">
-        <v>41.85647818344228</v>
+        <v>43.70397509385997</v>
       </c>
       <c r="E6" t="n">
         <v>30</v>
@@ -579,10 +579,10 @@
         <v>21.9108897823065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002630080058125293</v>
+        <v>-0.7602874871616313</v>
       </c>
       <c r="D7" t="n">
-        <v>42.67372291218389</v>
+        <v>41.56643863765263</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
@@ -599,10 +599,10 @@
         <v>16.99345410578896</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.846783288411197</v>
+        <v>-3.143034866853846</v>
       </c>
       <c r="D8" t="n">
-        <v>39.1944465664708</v>
+        <v>40.47685267890838</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>15.81341894536384</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.334282552183827</v>
+        <v>-5.137954903296643</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2319176699146</v>
+        <v>35.81791460452645</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
@@ -639,10 +639,10 @@
         <v>20.4073890882644</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.413539775085131</v>
+        <v>0.09828833744985897</v>
       </c>
       <c r="D10" t="n">
-        <v>41.12198037782096</v>
+        <v>40.96021931149025</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -659,10 +659,10 @@
         <v>14.55967237289326</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.348786230891833</v>
+        <v>-4.39320930194601</v>
       </c>
       <c r="D11" t="n">
-        <v>34.64838381808907</v>
+        <v>35.40615440458109</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -679,10 +679,10 @@
         <v>17.70104433963863</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.799764804387665</v>
+        <v>-2.662275446565323</v>
       </c>
       <c r="D12" t="n">
-        <v>38.07537120628744</v>
+        <v>37.87909114763679</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -699,10 +699,10 @@
         <v>16.28948767281216</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.688394371652044</v>
+        <v>-4.615110458323465</v>
       </c>
       <c r="D13" t="n">
-        <v>37.36565145785644</v>
+        <v>35.62028746971146</v>
       </c>
       <c r="E13" t="n">
         <v>20</v>
@@ -719,10 +719,10 @@
         <v>16.48786488756266</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.221776203935814</v>
+        <v>-4.419265431128861</v>
       </c>
       <c r="D14" t="n">
-        <v>36.08159040440029</v>
+        <v>34.97284448873214</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -739,10 +739,10 @@
         <v>11.74846300701651</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.242309784873862</v>
+        <v>-8.473098349792641</v>
       </c>
       <c r="D15" t="n">
-        <v>31.85096552895849</v>
+        <v>31.63531150619295</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -759,10 +759,10 @@
         <v>12.30299455681601</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.692323493511664</v>
+        <v>-8.48917595436604</v>
       </c>
       <c r="D16" t="n">
-        <v>32.02336132184255</v>
+        <v>30.836419409495</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -779,10 +779,10 @@
         <v>11.83904373026081</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.837482848220591</v>
+        <v>-7.07005174460549</v>
       </c>
       <c r="D17" t="n">
-        <v>31.78339117217105</v>
+        <v>31.72260419361272</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v>14.67479627638264</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.70837400601392</v>
+        <v>-5.788518677667734</v>
       </c>
       <c r="D18" t="n">
-        <v>35.24044060084297</v>
+        <v>33.73960477047328</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -819,10 +819,10 @@
         <v>10.65537891880386</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.714984928207253</v>
+        <v>-9.506899769702271</v>
       </c>
       <c r="D19" t="n">
-        <v>29.83181075291298</v>
+        <v>31.21562283001198</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -941,7 +941,7 @@
         <v>0.461432907581842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9090909090909083</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
